--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_375__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_375__Reeval_Sobol_Modell_1.1.xlsx
@@ -6121,40 +6121,40 @@
                   <c:v>1.650720834732056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.356983184814453</c:v>
+                  <c:v>4.356990337371826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.583934664726257</c:v>
+                  <c:v>1.58393919467926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.272446870803833</c:v>
+                  <c:v>2.272444725036621</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43.45250701904297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.095765113830566</c:v>
+                  <c:v>2.095767259597778</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>47.78466796875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.65130805969238</c:v>
+                  <c:v>29.65131568908691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.27112579345703</c:v>
+                  <c:v>51.2711296081543</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>39.44504165649414</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.061800718307495</c:v>
+                  <c:v>3.061803102493286</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.143255472183228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.47942733764648</c:v>
+                  <c:v>35.47943115234375</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>48.63315200805664</c:v>
@@ -6175,7 +6175,7 @@
                   <c:v>51.37376022338867</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.81864929199219</c:v>
+                  <c:v>51.81864547729492</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>48.85610961914062</c:v>
@@ -6184,37 +6184,37 @@
                   <c:v>45.09514617919922</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.637075901031494</c:v>
+                  <c:v>2.637080430984497</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>47.23700332641602</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51.73827743530273</c:v>
+                  <c:v>51.7382698059082</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.934948205947876</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.571588516235352</c:v>
+                  <c:v>7.571586132049561</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2.531586408615112</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51.40469741821289</c:v>
+                  <c:v>51.40470123291016</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.99039077758789</c:v>
+                  <c:v>50.99037933349609</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>48.45355987548828</c:v>
+                  <c:v>48.45355606079102</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2.292282819747925</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.368414878845215</c:v>
+                  <c:v>2.368410348892212</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1.662521719932556</c:v>
@@ -6226,22 +6226,22 @@
                   <c:v>2.648603200912476</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.963302612304688</c:v>
+                  <c:v>2.963298082351685</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.724680423736572</c:v>
+                  <c:v>2.724689722061157</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>47.23617172241211</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42.80141830444336</c:v>
+                  <c:v>42.80141448974609</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.98889422416687</c:v>
+                  <c:v>1.988891959190369</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.161796808242798</c:v>
+                  <c:v>2.161801338195801</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3.832884788513184</c:v>
@@ -6250,97 +6250,97 @@
                   <c:v>52.74005889892578</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>53.15578079223633</c:v>
+                  <c:v>53.1557731628418</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.719793438911438</c:v>
+                  <c:v>1.719795703887939</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18.91490936279297</c:v>
+                  <c:v>18.91491508483887</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.91646194458008</c:v>
+                  <c:v>55.91645812988281</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>37.60626983642578</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44.89865493774414</c:v>
+                  <c:v>44.89865875244141</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.220096588134766</c:v>
+                  <c:v>2.220098733901978</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>26.65294075012207</c:v>
+                  <c:v>26.65293502807617</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.114563941955566</c:v>
+                  <c:v>2.114566087722778</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.430576086044312</c:v>
+                  <c:v>2.430580854415894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.73385238647461</c:v>
+                  <c:v>50.73386001586914</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50.72686767578125</c:v>
+                  <c:v>50.72686386108398</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1.852693557739258</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.118910312652588</c:v>
+                  <c:v>7.118912696838379</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51.12364196777344</c:v>
+                  <c:v>51.12364959716797</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>47.49535751342773</c:v>
+                  <c:v>47.49535369873047</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40.50332641601562</c:v>
+                  <c:v>40.50333023071289</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>36.10686492919922</c:v>
+                  <c:v>36.10687255859375</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.097579479217529</c:v>
+                  <c:v>4.097577095031738</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>48.99373245239258</c:v>
+                  <c:v>48.99372863769531</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>47.77692794799805</c:v>
+                  <c:v>47.77692413330078</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.688320755958557</c:v>
+                  <c:v>1.688327550888062</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1.921266913414001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.771899700164795</c:v>
+                  <c:v>2.771902084350586</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>49.48075866699219</c:v>
+                  <c:v>49.48075485229492</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>3.357498407363892</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.47079062461853</c:v>
+                  <c:v>2.470786094665527</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.418697834014893</c:v>
+                  <c:v>3.418699979782104</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>48.94487762451172</c:v>
+                  <c:v>48.94487380981445</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>5.93639087677002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.241705894470215</c:v>
+                  <c:v>2.241710424423218</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>2.290069580078125</c:v>
@@ -6349,82 +6349,82 @@
                   <c:v>44.56023025512695</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.343960762023926</c:v>
+                  <c:v>3.343962907791138</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>48.23136901855469</c:v>
+                  <c:v>48.23136138916016</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.770630121231079</c:v>
+                  <c:v>2.770627975463867</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>5.523804187774658</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.61057281494141</c:v>
+                  <c:v>21.61057090759277</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.253440618515015</c:v>
+                  <c:v>2.2534339427948</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.957802057266235</c:v>
+                  <c:v>2.957806825637817</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>51.63311767578125</c:v>
+                  <c:v>51.63312530517578</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>45.62094879150391</c:v>
+                  <c:v>45.62095642089844</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>48.43086242675781</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.543827295303345</c:v>
+                  <c:v>2.543831825256348</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>14.50545024871826</c:v>
+                  <c:v>14.50544929504395</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.940161466598511</c:v>
+                  <c:v>1.940163731575012</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.514351367950439</c:v>
+                  <c:v>2.51435375213623</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>51.69207382202148</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>51.28065872192383</c:v>
+                  <c:v>51.28066253662109</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>45.56544494628906</c:v>
+                  <c:v>45.5654411315918</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.03829026222229</c:v>
+                  <c:v>3.038288116455078</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.357749223709106</c:v>
+                  <c:v>2.357747077941895</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.077900886535645</c:v>
+                  <c:v>2.077898502349854</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>51.73787307739258</c:v>
+                  <c:v>51.73786926269531</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43.40222930908203</c:v>
+                  <c:v>43.4022216796875</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.986363410949707</c:v>
+                  <c:v>7.986362457275391</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>51.32860946655273</c:v>
+                  <c:v>51.32861328125</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>3.779515504837036</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.727251768112183</c:v>
+                  <c:v>2.727249622344971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7151,7 +7151,7 @@
         <v>34.7122</v>
       </c>
       <c r="F3">
-        <v>4.356983184814453</v>
+        <v>4.356990337371826</v>
       </c>
       <c r="G3">
         <v>79</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.583934664726257</v>
+        <v>1.58393919467926</v>
       </c>
       <c r="G4">
         <v>79</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.272446870803833</v>
+        <v>2.272444725036621</v>
       </c>
       <c r="G5">
         <v>79</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.095765113830566</v>
+        <v>2.095767259597778</v>
       </c>
       <c r="G7">
         <v>79</v>
@@ -7331,7 +7331,7 @@
         <v>40.0699</v>
       </c>
       <c r="F9">
-        <v>29.65130805969238</v>
+        <v>29.65131568908691</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>49.6799</v>
       </c>
       <c r="F10">
-        <v>51.27112579345703</v>
+        <v>51.2711296081543</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.061800718307495</v>
+        <v>3.061803102493286</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.47942733764648</v>
+        <v>35.47943115234375</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7571,7 +7571,7 @@
         <v>51.6611</v>
       </c>
       <c r="F21">
-        <v>51.81864929199219</v>
+        <v>51.81864547729492</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.637075901031494</v>
+        <v>2.637080430984497</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>49.6745</v>
       </c>
       <c r="F26">
-        <v>51.73827743530273</v>
+        <v>51.7382698059082</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>7.571588516235352</v>
+        <v>7.571586132049561</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>51.3308</v>
       </c>
       <c r="F30">
-        <v>51.40469741821289</v>
+        <v>51.40470123291016</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>50.99039077758789</v>
+        <v>50.99037933349609</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.7115</v>
       </c>
       <c r="F32">
-        <v>48.45355987548828</v>
+        <v>48.45355606079102</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2.368414878845215</v>
+        <v>2.368410348892212</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2.963302612304688</v>
+        <v>2.963298082351685</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2.724680423736572</v>
+        <v>2.724689722061157</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>45.4106</v>
       </c>
       <c r="F41">
-        <v>42.80141830444336</v>
+        <v>42.80141448974609</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.98889422416687</v>
+        <v>1.988891959190369</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2.161796808242798</v>
+        <v>2.161801338195801</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>49.825</v>
       </c>
       <c r="F46">
-        <v>53.15578079223633</v>
+        <v>53.1557731628418</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.719793438911438</v>
+        <v>1.719795703887939</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>60.9577</v>
       </c>
       <c r="F48">
-        <v>18.91490936279297</v>
+        <v>18.91491508483887</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>32.9114</v>
       </c>
       <c r="F49">
-        <v>55.91646194458008</v>
+        <v>55.91645812988281</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>46.8488</v>
       </c>
       <c r="F51">
-        <v>44.89865493774414</v>
+        <v>44.89865875244141</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2.220096588134766</v>
+        <v>2.220098733901978</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>34.2886</v>
       </c>
       <c r="F53">
-        <v>26.65294075012207</v>
+        <v>26.65293502807617</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>2.114563941955566</v>
+        <v>2.114566087722778</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>2.430576086044312</v>
+        <v>2.430580854415894</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>48.7071</v>
       </c>
       <c r="F56">
-        <v>50.73385238647461</v>
+        <v>50.73386001586914</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>48.2681</v>
       </c>
       <c r="F57">
-        <v>50.72686767578125</v>
+        <v>50.72686386108398</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>7.118910312652588</v>
+        <v>7.118912696838379</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>52.8419</v>
       </c>
       <c r="F60">
-        <v>51.12364196777344</v>
+        <v>51.12364959716797</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>35.7539</v>
       </c>
       <c r="F61">
-        <v>47.49535751342773</v>
+        <v>47.49535369873047</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>40.50332641601562</v>
+        <v>40.50333023071289</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>49.8526</v>
       </c>
       <c r="F63">
-        <v>36.10686492919922</v>
+        <v>36.10687255859375</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>4.097579479217529</v>
+        <v>4.097577095031738</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>51.173</v>
       </c>
       <c r="F65">
-        <v>48.99373245239258</v>
+        <v>48.99372863769531</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>45.7573</v>
       </c>
       <c r="F66">
-        <v>47.77692794799805</v>
+        <v>47.77692413330078</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.688320755958557</v>
+        <v>1.688327550888062</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>2.771899700164795</v>
+        <v>2.771902084350586</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>38.2901</v>
       </c>
       <c r="F70">
-        <v>49.48075866699219</v>
+        <v>49.48075485229492</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>2.47079062461853</v>
+        <v>2.470786094665527</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>3.418697834014893</v>
+        <v>3.418699979782104</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>47.053</v>
       </c>
       <c r="F74">
-        <v>48.94487762451172</v>
+        <v>48.94487380981445</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>2.241705894470215</v>
+        <v>2.241710424423218</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>3.343960762023926</v>
+        <v>3.343962907791138</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.928</v>
       </c>
       <c r="F80">
-        <v>48.23136901855469</v>
+        <v>48.23136138916016</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>2.770630121231079</v>
+        <v>2.770627975463867</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>21.61057281494141</v>
+        <v>21.61057090759277</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>2.253440618515015</v>
+        <v>2.2534339427948</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>2.957802057266235</v>
+        <v>2.957806825637817</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>45.8522</v>
       </c>
       <c r="F86">
-        <v>51.63311767578125</v>
+        <v>51.63312530517578</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>26.1928</v>
       </c>
       <c r="F87">
-        <v>45.62094879150391</v>
+        <v>45.62095642089844</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>2.543827295303345</v>
+        <v>2.543831825256348</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>50.182</v>
       </c>
       <c r="F90">
-        <v>14.50545024871826</v>
+        <v>14.50544929504395</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.940161466598511</v>
+        <v>1.940163731575012</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>2.514351367950439</v>
+        <v>2.51435375213623</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>51.117</v>
       </c>
       <c r="F94">
-        <v>51.28065872192383</v>
+        <v>51.28066253662109</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.387</v>
       </c>
       <c r="F95">
-        <v>45.56544494628906</v>
+        <v>45.5654411315918</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>3.03829026222229</v>
+        <v>3.038288116455078</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>2.357749223709106</v>
+        <v>2.357747077941895</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>2.077900886535645</v>
+        <v>2.077898502349854</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>41.217</v>
       </c>
       <c r="F99">
-        <v>51.73787307739258</v>
+        <v>51.73786926269531</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>46.0374</v>
       </c>
       <c r="F100">
-        <v>43.40222930908203</v>
+        <v>43.4022216796875</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>7.986363410949707</v>
+        <v>7.986362457275391</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>44.8161</v>
       </c>
       <c r="F102">
-        <v>51.32860946655273</v>
+        <v>51.32861328125</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>2.727251768112183</v>
+        <v>2.727249622344971</v>
       </c>
     </row>
     <row r="105" spans="1:6">
